--- a/ISEF App WinForm/Data/Hlavicky/hlptallxxxt.xlsx
+++ b/ISEF App WinForm/Data/Hlavicky/hlptallxxxt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ladislav.Suchy\Desktop\isef2\Generator Zosteav ConsoleApp\bin\Debug\Data\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miriama.cisarova\source\repos\isef\ISEF App WinForm\Data\Hlavicky\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Zostava d'!$A$1:$O$41</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -93,7 +93,7 @@
     <t>Agentúra MŠVVaŠ SR pre ŠF EÚ</t>
   </si>
   <si>
-    <t>312+314+322+324+34x</t>
+    <t>312+315+322+325+34x</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
   <dimension ref="A2:R3758"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
